--- a/check.xlsx
+++ b/check.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Windows\Analytics\R Programming\GitHub\App\Trading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7087332A-2E33-4AEC-82A4-C84D92394291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779C1B2E-23F9-44B5-A955-2216791F2100}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="check" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">check!$A$2:$BY$2</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3337" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3343" uniqueCount="128">
   <si>
     <t>final_date</t>
   </si>
@@ -396,6 +397,18 @@
   </si>
   <si>
     <t>symbol</t>
+  </si>
+  <si>
+    <t>Affle</t>
+  </si>
+  <si>
+    <t>Asian Paints</t>
+  </si>
+  <si>
+    <t>Garfibres</t>
+  </si>
+  <si>
+    <t>BajajFinser</t>
   </si>
 </sst>
 </file>
@@ -54230,7 +54243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DBCAB1-8C04-442D-BB36-299929EBE48F}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -54396,4 +54409,47 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647F9F4D-AFDF-4D73-BFD0-D272F584E546}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>